--- a/data_excel/656.xlsx
+++ b/data_excel/656.xlsx
@@ -102,44 +102,45 @@
     <t>放進去</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>共有</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>數量</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>共有</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,27 +187,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -253,9 +239,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -561,7 +547,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,14 +710,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,21 +725,21 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,10 +766,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -821,10 +807,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -832,13 +818,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
